--- a/运行数据/rs_bo_precision_domain/Spark_conf_range_wordcount.xlsx
+++ b/运行数据/rs_bo_precision_domain/Spark_conf_range_wordcount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\1 贝叶斯优化代码（github同步）\ade\运行数据\rs_bo_precision_domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82C4917-DC7D-4C38-B01D-5E5744CAAA26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF83115-4519-4430-AFB4-8C21E8C3D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9345" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1320" yWindow="2775" windowWidth="25155" windowHeight="12960" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数范围" sheetId="3" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,7 +1368,7 @@
       <c r="F29" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
